--- a/data/processed/basaltic_glasses/calczaf_files/Edi06/calczaf_oxides_summary.xlsx
+++ b/data/processed/basaltic_glasses/calczaf_files/Edi06/calczaf_oxides_summary.xlsx
@@ -601,7 +601,7 @@
         <v>1.797</v>
       </c>
       <c r="J3">
-        <v>0.008999999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="K3">
         <v>0.195</v>
@@ -616,7 +616,7 @@
         <v>0.011</v>
       </c>
       <c r="O3">
-        <v>99.672</v>
+        <v>99.67400000000001</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -648,7 +648,7 @@
         <v>1.797</v>
       </c>
       <c r="J4">
-        <v>0.011</v>
+        <v>0.013</v>
       </c>
       <c r="K4">
         <v>0.195</v>
@@ -663,7 +663,7 @@
         <v>0.011</v>
       </c>
       <c r="O4">
-        <v>99.67400000000001</v>
+        <v>99.676</v>
       </c>
     </row>
   </sheetData>
@@ -799,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.014</v>
+        <v>0.015</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -814,7 +814,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.014</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -846,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.017</v>
+        <v>0.018</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.017</v>
+        <v>0.018</v>
       </c>
     </row>
   </sheetData>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0.008999999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="S3">
-        <v>0.014</v>
+        <v>0.015</v>
       </c>
       <c r="T3">
         <v>1.797</v>
@@ -1144,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>99.672</v>
+        <v>99.67400000000001</v>
       </c>
       <c r="AC3">
-        <v>0.014</v>
+        <v>0.015</v>
       </c>
       <c r="AD3">
         <v>5</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="R4">
-        <v>0.011</v>
+        <v>0.013</v>
       </c>
       <c r="S4">
-        <v>0.017</v>
+        <v>0.018</v>
       </c>
       <c r="T4">
         <v>1.797</v>
@@ -1236,10 +1236,10 @@
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>99.67400000000001</v>
+        <v>99.676</v>
       </c>
       <c r="AC4">
-        <v>0.017</v>
+        <v>0.018</v>
       </c>
       <c r="AD4">
         <v>5</v>
